--- a/プログラム解析20181203.xlsx
+++ b/プログラム解析20181203.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\PythonProjects\ssd_keras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ECD009-B4B6-4B4F-8503-0D76D7491F88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479FBCD8-6B38-4368-B1FA-E094E3FD7526}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22508" windowHeight="12263" xr2:uid="{F2E05B79-BB1B-46EC-BE7A-CD523650F5E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22508" windowHeight="12263" activeTab="1" xr2:uid="{F2E05B79-BB1B-46EC-BE7A-CD523650F5E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SSD Keras解析" sheetId="1" r:id="rId1"/>
+    <sheet name="MSChromNetデザイン" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>SSD300</t>
     <phoneticPr fontId="1"/>
@@ -317,6 +318,39 @@
   </si>
   <si>
     <t>( , 7308, 5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>等間隔データとする</t>
+    <rPh sb="0" eb="3">
+      <t>トウカンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>box</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start-endを正規化(0-1)</t>
+    <rPh sb="10" eb="13">
+      <t>セイキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ１つに複数のBOX</t>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -710,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3780C9-DD6B-4DF1-9341-B86F11678B91}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B30" sqref="B30:D42"/>
     </sheetView>
   </sheetViews>
@@ -1106,4 +1140,47 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F84117-0F7B-4767-9B75-75106A5BA4EE}">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>1024</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>